--- a/applied_maths&compt.xlsx
+++ b/applied_maths&compt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="12105" windowHeight="11550" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="13425" windowHeight="11550" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="passed_all_modules" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="70">
   <si>
     <t>Student Number</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>missing</t>
+  </si>
+  <si>
+    <t>special_</t>
   </si>
 </sst>
 </file>
@@ -235,9 +238,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -278,8 +281,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,9 +308,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -306,22 +331,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
@@ -329,7 +340,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
@@ -345,15 +356,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,6 +364,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,23 +393,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,9 +422,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -435,7 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,13 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +468,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,31 +516,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,103 +606,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,6 +706,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -717,149 +729,140 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3181,12 +3184,13 @@
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="15.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
     <col min="10" max="10" width="14.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="14.7481481481481" customWidth="1"/>
@@ -3221,7 +3225,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -3406,7 +3410,6 @@
       <c r="F16" t="s">
         <v>43</v>
       </c>
-      <c r="G16"/>
       <c r="I16">
         <v>39</v>
       </c>
